--- a/SubRES_TMPL/SubRES_NewTechs_SUN.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs_SUN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162A9C03-6A2E-48F4-A5EF-1A686669EF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076D52C0-98B7-43F0-8835-94101DA3D033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -819,7 +819,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,12 +869,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1079,7 +1073,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1210,9 +1204,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="37"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="37" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="37" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="51" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="51" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="20 % - Farve5" xfId="1" builtinId="46"/>
@@ -1280,623 +1276,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>75777</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>33020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE319AE5-1D4E-46BE-8600-7A680B439B3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10835640" y="6369897"/>
-          <a:ext cx="7652385" cy="1466003"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Define each "new"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>power plants (FI_Process table).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Declare technology</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> attributes (FI_T) such as INVCOST. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="0"/>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Existing technologies are defined in the base-year template while new fuel technologies are</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> defined here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Duplicate definition should be avoided. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Vintaging ELCTNGAS00 in the FI_PROCESS setting YES cellW15 and then specifing data by year in table FI_T (column Year. In this example EFF is vintaged for periods 2006 to 2020.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Tekstfelt 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E72EB0-D88F-A3BD-6AAA-B072588F3172}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="259080" y="4251960"/>
-          <a:ext cx="6278880" cy="5455920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>Only PRI_ELC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t> is used</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>Utilisation Factor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t> is based on Energistyrelsens technology catalogue. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>Costs for both sun and wind based on technology catalogue as well. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>ELCRNWINDOFF and ON investment cost is from the technology catalogue. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>Onshore cost breakdown added in separate excel file. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>Fixed O&amp;M costs as well as Variable O&amp;M costs, for offshore wind, are from 'Comparing offshore and onshore wind development'. It had to be transformed from Euro/MW to EURO/PJ, anually. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>O&amp;M costs are assumed constant throughout a turbines lifetime, despite the fact that we know it increases as the turbine ages. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>As for sun, the investment cost is also from the technology catalogue, but the price is expecting to drop every year. This should probably be considered. EIA is also estimating current costs at way more, around 450 M. Euro pr GWp. So, if it invests everything into sun, try increasing the investment price to match that. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>O&amp;M costs are assumed to be </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1% to 3% of the initial capital cost,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> based on litterature read, simply because the actual maintenance and repair is minor. No variable costs, as the cells don't degrade noticeably by producing electricity relative to wind turbines, which do slowly break down due to mechnical wear. </a:t>
-          </a:r>
-          <a:endParaRPr lang="da-DK" sz="1100" b="0" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t>Efficiency also drops across lifetime, but slowly. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100"/>
-            <a:t>Variable costs added to the sun,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" baseline="0"/>
-            <a:t> for run 9 in KModel_2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Tekstfelt 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CBC1E0-F88A-9BD8-B8E8-26066259BDF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8328660" y="3992880"/>
-          <a:ext cx="2956560" cy="2004060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200"/>
-            <a:t>NCAP_ILED</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-            <a:t> added. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-            <a:t>Years based on historic constructions of wind farms. pure conjecture of a google search, just to see if it works. </a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-          </a:br>
-          <a:br>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-          </a:br>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-            <a:t>Should I base it on farms or individual tech..? Because if it begins building a lot, then under a year for a turbine is not realistic, but a single one doesn't take 6 years. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" kern="1200" baseline="0"/>
-            <a:t>Also based on permitting. </a:t>
-          </a:r>
-          <a:endParaRPr lang="da-DK" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Tekstfelt 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBB1672-7AB8-89AA-2871-65714EE1B1A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12656820" y="3970020"/>
-          <a:ext cx="2255520" cy="2247900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" b="1" kern="1200"/>
-            <a:t>Problem with</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" sz="1100" b="1" kern="1200" baseline="0"/>
-            <a:t> LCOE calc here, Danish Energy Agency:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="da-DK"/>
-            <a:t>"Firstly, it mainly deals with base load technologies, i.e. power generation technologies with a relatively high number of full load hours, which is considered </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK" b="1"/>
-            <a:t>constant </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="da-DK"/>
-            <a:t>over the lifetime. It is not intended to be used for modelling and simulation of the electricity dispatch in a system with many concurrent sources."</a:t>
-          </a:r>
-          <a:endParaRPr lang="da-DK" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2383,8 +1762,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2776,16 +2155,16 @@
       <c r="H14" s="25">
         <v>0.48</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="72">
         <v>1900</v>
       </c>
-      <c r="J14" s="74">
+      <c r="J14" s="73">
         <v>57</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="74">
         <v>1.19</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="75">
         <v>30</v>
       </c>
       <c r="M14" s="22">
@@ -2847,16 +2226,16 @@
       <c r="H15" s="25">
         <v>0.48</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="72">
         <v>2060</v>
       </c>
-      <c r="J15" s="74">
+      <c r="J15" s="73">
         <v>61.8</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="72">
         <v>1.3755552382765401</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="75">
         <v>30</v>
       </c>
       <c r="M15" s="22">
@@ -2918,16 +2297,16 @@
       <c r="H16" s="25">
         <v>0.48</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="72">
         <v>2180</v>
       </c>
-      <c r="J16" s="74">
+      <c r="J16" s="73">
         <v>65.399999999999991</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="72">
         <v>1.726314157819919</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="75">
         <v>30</v>
       </c>
       <c r="M16" s="22">
@@ -2987,17 +2366,17 @@
       <c r="H17" s="25">
         <v>0.35</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="75">
         <v>1150</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="76">
         <v>23</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="76">
         <f>K14</f>
         <v>1.19</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="75">
         <v>30</v>
       </c>
       <c r="M17" s="22">
@@ -3264,23 +2643,13 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="J24" s="22">
-        <f>(57.3-50)/3</f>
-        <v>2.4333333333333322</v>
-      </c>
-    </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I26" s="25">
-        <v>1.74</v>
-      </c>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="2:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
-      <c r="I27" s="25">
-        <v>1.74</v>
-      </c>
+      <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="N27" s="24"/>
@@ -3291,9 +2660,7 @@
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
-      <c r="I28" s="25">
-        <v>1.74</v>
-      </c>
+      <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="N28" s="24"/>
@@ -3301,19 +2668,14 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G29" s="25"/>
-      <c r="I29" s="25">
-        <v>1.74</v>
-      </c>
+      <c r="I29" s="25"/>
       <c r="N29" s="24"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
       <c r="T29" s="37"/>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I30" s="25">
-        <f>0.58</f>
-        <v>0.57999999999999996</v>
-      </c>
+      <c r="I30" s="25"/>
       <c r="T30" s="37"/>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
@@ -4053,7 +3415,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
